--- a/data/trans_dic/DCD-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.05855996512464385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.09383078420987209</v>
+        <v>0.09383078420987211</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.1823960511605887</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02019181110775654</v>
+        <v>0.01901564068179562</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03447562469940114</v>
+        <v>0.03503846521210521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06806361504856746</v>
+        <v>0.06842076530006819</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1368167589177156</v>
+        <v>0.1353810411887411</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1687761375323911</v>
+        <v>0.1656489053153716</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1405753228415476</v>
+        <v>0.1395479662432063</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08042627195485873</v>
+        <v>0.0852975936051356</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1104512673747885</v>
+        <v>0.1069287183791905</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1134571002321154</v>
+        <v>0.1108384783744433</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06375821610912492</v>
+        <v>0.06283294868105806</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09335257620609688</v>
+        <v>0.09520193912858815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1256794720774374</v>
+        <v>0.1318960034120944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2320640030157157</v>
+        <v>0.2360557556894074</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2670411838537387</v>
+        <v>0.260602713300993</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2085167698626989</v>
+        <v>0.2066209975140652</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.136851315079686</v>
+        <v>0.1411466244451622</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1714624950578596</v>
+        <v>0.166850578751973</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1553219263824898</v>
+        <v>0.1567890510893445</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.0734186440651295</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.2672974087414027</v>
+        <v>0.2672974087414026</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1023476934997882</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03749266133477001</v>
+        <v>0.03956886910568953</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02770377883745863</v>
+        <v>0.02633046629872153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08837522189412143</v>
+        <v>0.08708771541246466</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1145659842483219</v>
+        <v>0.1155475885625537</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05173943002149763</v>
+        <v>0.05123529897158809</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2337597231797462</v>
+        <v>0.235668874086866</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08387989749238893</v>
+        <v>0.08339261080260217</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04435794683108069</v>
+        <v>0.04323543450329913</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1708070099070479</v>
+        <v>0.1698348106229852</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08238118312966448</v>
+        <v>0.08738632949341836</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06240870586930439</v>
+        <v>0.06295743657535732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1488708593316825</v>
+        <v>0.1511963569023574</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1786600768317582</v>
+        <v>0.1800094502436969</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09776755086653216</v>
+        <v>0.09965499657298421</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3017977870596019</v>
+        <v>0.2986246804856183</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1230392624948388</v>
+        <v>0.1235357658711951</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07462563553675737</v>
+        <v>0.07399971559930134</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2184161027969369</v>
+        <v>0.2185152933810005</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.08987343369281314</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2065683802002243</v>
+        <v>0.2065683802002242</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03447584036295571</v>
+        <v>0.03330406304074001</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03074306469725911</v>
+        <v>0.03221577200258996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1125727512455222</v>
+        <v>0.1168909154866939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09247714694568338</v>
+        <v>0.09150797979401207</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09240940477243266</v>
+        <v>0.09146100868364392</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2226398328266926</v>
+        <v>0.2252923782103188</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06998620991031387</v>
+        <v>0.06885932824675124</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06971867882894225</v>
+        <v>0.06723192167831435</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1810361608092709</v>
+        <v>0.1814958816957246</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08931179539969296</v>
+        <v>0.08698328122760648</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0797337154462906</v>
+        <v>0.08020147193015423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1820139388658787</v>
+        <v>0.1870534946616507</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1693215991775346</v>
+        <v>0.1688191104055814</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1715640491221069</v>
+        <v>0.1716788383011826</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2972534625879727</v>
+        <v>0.2986484751502867</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1168580877210313</v>
+        <v>0.1158634749056505</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1157157838267015</v>
+        <v>0.1120879158486482</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2322838862538555</v>
+        <v>0.2370345314387993</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.1343228053883501</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.2040808360314372</v>
+        <v>0.2040808360314371</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04934889131827053</v>
+        <v>0.04894803342563379</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06157081052943521</v>
+        <v>0.06496408400431504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09902189704409689</v>
+        <v>0.0994735749287239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1551815189539428</v>
+        <v>0.1558577042396117</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1365066451533546</v>
+        <v>0.1359849465526352</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2316024083612725</v>
+        <v>0.2328318571965095</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1125729517419425</v>
+        <v>0.1125443929817644</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1104937985101272</v>
+        <v>0.1089266501413272</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1786679248770389</v>
+        <v>0.1769045992272764</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.112017100758797</v>
+        <v>0.1091885298978948</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1235152228794359</v>
+        <v>0.1244465329578938</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1749412695304098</v>
+        <v>0.1745658395051826</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2378017332547957</v>
+        <v>0.2359613730649229</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2190401491637788</v>
+        <v>0.2204186866921266</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3089329340835916</v>
+        <v>0.3158393059408434</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1618444816638474</v>
+        <v>0.1615713682025221</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1609748165796586</v>
+        <v>0.1591728214205651</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2323011076090095</v>
+        <v>0.2323461086295695</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08679321528586673</v>
+        <v>0.09393369057721303</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04885849225612952</v>
+        <v>0.05145891432962171</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06337414452718229</v>
+        <v>0.06630079449123842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2710111741110114</v>
+        <v>0.2651898822447383</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1213679358061699</v>
+        <v>0.1223287112625835</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1580284878688372</v>
+        <v>0.1581430501004243</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1964821581445215</v>
+        <v>0.1966123449127321</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09508937143831589</v>
+        <v>0.09537294276190324</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1227376195176761</v>
+        <v>0.1245297161936561</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1910083802802904</v>
+        <v>0.1915279496574187</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1266323322814809</v>
+        <v>0.1259295913938756</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1308638499326525</v>
+        <v>0.1328659762733656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3906285495090059</v>
+        <v>0.3930651635173605</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2206506366950576</v>
+        <v>0.2277260721487717</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2302903485437781</v>
+        <v>0.2328540728337549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.278163190222719</v>
+        <v>0.2790783153610461</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1588176967819277</v>
+        <v>0.1610500400267178</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.170397793735403</v>
+        <v>0.1727257412862604</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.1345933452629869</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.3276223169407007</v>
+        <v>0.3276223169407005</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.1370946340735067</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07281686045963522</v>
+        <v>0.07344162407148581</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04304004327980245</v>
+        <v>0.04621814701488668</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1464663688580647</v>
+        <v>0.1460223574329995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1210838783006943</v>
+        <v>0.1246033002683608</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0956161737843953</v>
+        <v>0.09829921232387101</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2868426345959403</v>
+        <v>0.2873060927807657</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1092183432338089</v>
+        <v>0.1111509797023005</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07959152069777582</v>
+        <v>0.07864929479672816</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2231830385693636</v>
+        <v>0.2275139381019905</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1514483954337155</v>
+        <v>0.156431186837688</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.109163951488138</v>
+        <v>0.1100041277031439</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2247545270348723</v>
+        <v>0.2220458391287055</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2083835820490816</v>
+        <v>0.2148702655936816</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1791635322821571</v>
+        <v>0.1823643160458781</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3744611012254868</v>
+        <v>0.3714000255863802</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1693021370788908</v>
+        <v>0.1698272868213285</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.133968892229008</v>
+        <v>0.1364026578152007</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2847134440173418</v>
+        <v>0.2838552862592723</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.101963577741453</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.2662280877373282</v>
+        <v>0.2662280877373283</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04406911665306692</v>
+        <v>0.04312531335393696</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05993081026936516</v>
+        <v>0.06206744730335817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1351178221411958</v>
+        <v>0.1355331437773822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1265803722348327</v>
+        <v>0.1272408384708869</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09917146561028381</v>
+        <v>0.1007320324387718</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3325086121265293</v>
+        <v>0.3328188852126273</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09310652759030931</v>
+        <v>0.09368595447812288</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08550275030562576</v>
+        <v>0.08608579613434317</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2433947325050783</v>
+        <v>0.242475760173877</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08112545495405014</v>
+        <v>0.0818049149311922</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1067365861532386</v>
+        <v>0.1058442307943477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1948736466125416</v>
+        <v>0.1931829679294972</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1870819208618713</v>
+        <v>0.1837156402079173</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1526342227893903</v>
+        <v>0.1531883035762583</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3955771835690606</v>
+        <v>0.3953065695084159</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1267153765549931</v>
+        <v>0.1300992646068854</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1195334706255413</v>
+        <v>0.1198044450013333</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2898296440454998</v>
+        <v>0.2893657535593166</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.1120876889401802</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.2177667376567985</v>
+        <v>0.2177667376567986</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.09330297615576591</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03924146921773618</v>
+        <v>0.04045708062990552</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04951686881831524</v>
+        <v>0.04954217120816247</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08486144287165971</v>
+        <v>0.08373128878609563</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1079515124430038</v>
+        <v>0.1075366310207758</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0900531001263352</v>
+        <v>0.08969979557020541</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1941579337134034</v>
+        <v>0.1951468165203185</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07833184329690913</v>
+        <v>0.07915356680286605</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07745412791851337</v>
+        <v>0.07499235350271692</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1468923947655457</v>
+        <v>0.1456129640173314</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07261302496398761</v>
+        <v>0.07330330693228224</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08598438120512721</v>
+        <v>0.08622619368012707</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1249720930726463</v>
+        <v>0.1235266015354904</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1560578473656346</v>
+        <v>0.1595164917696442</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1374739350363467</v>
+        <v>0.1383326207960469</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2415340516639126</v>
+        <v>0.2421146562957081</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1082155245810611</v>
+        <v>0.1086450383977803</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1049707202822699</v>
+        <v>0.1054153761998149</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1798588289028244</v>
+        <v>0.1774430929877937</v>
       </c>
     </row>
     <row r="28">
@@ -1536,7 +1536,7 @@
         <v>0.09951588672539331</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.1998455739564969</v>
+        <v>0.1998455739564968</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05886419902711722</v>
+        <v>0.05820421111470865</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05920348655569497</v>
+        <v>0.0583502555889354</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1184113524953561</v>
+        <v>0.117796707733312</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1506723377128215</v>
+        <v>0.1514326321269351</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1182547476009358</v>
+        <v>0.1191281939959602</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2524961827463597</v>
+        <v>0.2542391733648293</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1073389647459468</v>
+        <v>0.1073182729257103</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.09237912693623766</v>
+        <v>0.09161158618356394</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1914702871060758</v>
+        <v>0.1914092555334616</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07563779031655364</v>
+        <v>0.07553627819715771</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.07608892194863291</v>
+        <v>0.07654085190246197</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1398739045250559</v>
+        <v>0.1397306671235299</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1757615556231975</v>
+        <v>0.1756567128164644</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1415528757413859</v>
+        <v>0.1425448884298514</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2800738435272774</v>
+        <v>0.2794617088889694</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1231805104111187</v>
+        <v>0.1227714926479408</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1069800333982346</v>
+        <v>0.1066509541043104</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2090221462754771</v>
+        <v>0.2079970453229994</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5951</v>
+        <v>5605</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10128</v>
+        <v>10293</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21702</v>
+        <v>21816</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>39300</v>
+        <v>38888</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>48726</v>
+        <v>47823</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>44430</v>
+        <v>44106</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>46807</v>
+        <v>49642</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>64334</v>
+        <v>62282</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>72035</v>
+        <v>70372</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18792</v>
+        <v>18519</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27423</v>
+        <v>27967</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40072</v>
+        <v>42054</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>66659</v>
+        <v>67806</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>77096</v>
+        <v>75237</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>65904</v>
+        <v>65305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>79645</v>
+        <v>82145</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>99871</v>
+        <v>97184</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>98615</v>
+        <v>99546</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18954</v>
+        <v>20003</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13923</v>
+        <v>13233</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>46896</v>
+        <v>46213</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>60006</v>
+        <v>60520</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27064</v>
+        <v>26800</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>127748</v>
+        <v>128792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>86337</v>
+        <v>85835</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>45496</v>
+        <v>44345</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>183983</v>
+        <v>182936</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41646</v>
+        <v>44176</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31365</v>
+        <v>31641</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>78998</v>
+        <v>80232</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>93576</v>
+        <v>94283</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>51141</v>
+        <v>52128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>164931</v>
+        <v>163197</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>126643</v>
+        <v>127154</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>76540</v>
+        <v>75898</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>235265</v>
+        <v>235372</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11172</v>
+        <v>10792</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9794</v>
+        <v>10263</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35572</v>
+        <v>36937</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31537</v>
+        <v>31206</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31078</v>
+        <v>30759</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>79345</v>
+        <v>80290</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46545</v>
+        <v>45796</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>45657</v>
+        <v>44028</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>121724</v>
+        <v>122033</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28941</v>
+        <v>28187</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25400</v>
+        <v>25549</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57515</v>
+        <v>59108</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>57742</v>
+        <v>57571</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>57699</v>
+        <v>57737</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>105935</v>
+        <v>106433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>77718</v>
+        <v>77057</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>75779</v>
+        <v>73403</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>156182</v>
+        <v>159376</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18456</v>
+        <v>18306</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22779</v>
+        <v>24034</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36950</v>
+        <v>37118</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60358</v>
+        <v>60621</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>52867</v>
+        <v>52665</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>97727</v>
+        <v>98246</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>85886</v>
+        <v>85864</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>83671</v>
+        <v>82484</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>142060</v>
+        <v>140658</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41892</v>
+        <v>40835</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45696</v>
+        <v>46041</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65278</v>
+        <v>65138</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>92493</v>
+        <v>91777</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>84831</v>
+        <v>85364</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>130358</v>
+        <v>133272</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>123476</v>
+        <v>123268</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>121898</v>
+        <v>120533</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>184704</v>
+        <v>184740</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18454</v>
+        <v>19972</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10320</v>
+        <v>10869</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13034</v>
+        <v>13636</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>59512</v>
+        <v>58233</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>26529</v>
+        <v>26739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>36176</v>
+        <v>36202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>84921</v>
+        <v>84978</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>40870</v>
+        <v>40992</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>53340</v>
+        <v>54118</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>40612</v>
+        <v>40722</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26747</v>
+        <v>26599</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26914</v>
+        <v>27326</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>85779</v>
+        <v>86314</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48231</v>
+        <v>49778</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>52718</v>
+        <v>53304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>120225</v>
+        <v>120620</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>68261</v>
+        <v>69221</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>74052</v>
+        <v>75063</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>19950</v>
+        <v>20122</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11325</v>
+        <v>12161</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>39649</v>
+        <v>39529</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>33907</v>
+        <v>34893</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>26114</v>
+        <v>26847</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>75655</v>
+        <v>75777</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>60508</v>
+        <v>61579</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>42680</v>
+        <v>42175</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>119282</v>
+        <v>121596</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>41494</v>
+        <v>42859</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>28724</v>
+        <v>28945</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>60843</v>
+        <v>60109</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>58354</v>
+        <v>60170</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>48932</v>
+        <v>49806</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>98764</v>
+        <v>97957</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>93795</v>
+        <v>94086</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>71839</v>
+        <v>73144</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>152167</v>
+        <v>151708</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>29208</v>
+        <v>28583</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>39348</v>
+        <v>40751</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>97243</v>
+        <v>97541</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>87828</v>
+        <v>88286</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>68557</v>
+        <v>69635</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>256716</v>
+        <v>256955</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>126312</v>
+        <v>127098</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>115245</v>
+        <v>116031</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>363083</v>
+        <v>361712</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>53769</v>
+        <v>54219</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>70079</v>
+        <v>69493</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>140248</v>
+        <v>139031</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>129807</v>
+        <v>127472</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>105515</v>
+        <v>105898</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>305408</v>
+        <v>305199</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>171907</v>
+        <v>176498</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>161113</v>
+        <v>161479</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>432352</v>
+        <v>431660</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>30573</v>
+        <v>31520</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>38553</v>
+        <v>38573</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>67726</v>
+        <v>66824</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>88936</v>
+        <v>88594</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>74399</v>
+        <v>74107</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>161410</v>
+        <v>162232</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>125562</v>
+        <v>126879</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>124295</v>
+        <v>120344</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>239347</v>
+        <v>237262</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>56573</v>
+        <v>57110</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>66946</v>
+        <v>67134</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>99737</v>
+        <v>98583</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>128569</v>
+        <v>131418</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>113576</v>
+        <v>114286</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>200795</v>
+        <v>201277</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>173464</v>
+        <v>174153</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>168452</v>
+        <v>169165</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>293063</v>
+        <v>289126</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>201715</v>
+        <v>199453</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>200957</v>
+        <v>198061</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>418319</v>
+        <v>416148</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>536139</v>
+        <v>538844</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>419159</v>
+        <v>422255</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>943567</v>
+        <v>950080</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>749772</v>
+        <v>749628</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>641009</v>
+        <v>635683</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1391935</v>
+        <v>1391491</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>259194</v>
+        <v>258846</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>258272</v>
+        <v>259806</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>494141</v>
+        <v>493635</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>625414</v>
+        <v>625041</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>501740</v>
+        <v>505256</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1046623</v>
+        <v>1044336</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>860427</v>
+        <v>857570</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>742323</v>
+        <v>740039</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1519532</v>
+        <v>1512079</v>
       </c>
     </row>
     <row r="40">
